--- a/biology/Biologie cellulaire et moléculaire/Anticorps_anti-histones/Anticorps_anti-histones.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Anticorps_anti-histones/Anticorps_anti-histones.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les anticorps anti-histones sont un sous-ensemble des auto-anticorps de la famille des anticorps antinucléaires. Ceux-ci ciblent spécifiquement les sous-unités protéiques d'histone ou les complexes d'histone[1]. Ils ont été repérés pour la première fois par Henry Kunkel, HR Holman et HRG Dreicher dans leurs études portant sur les causes cellulaires du lupus érythémateux en 1959-1960[2],[3]. Aujourd'hui, les anticorps anti-histones sont toujours utilisés en tant que marqueur du lupus érythémateux systématique, mais sont également impliqués dans d'autres maladies auto-immunes comme le syndrome de Sjögren, la dermatomyosite ou la polyarthrite rhumatoïde et peuvent donc éventuellement faciliter leur diagnostic[4],[5]. Les anticorps anti-histones peuvent être utilisés comme marqueur du lupus d'origine médicamenteuse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anticorps anti-histones sont un sous-ensemble des auto-anticorps de la famille des anticorps antinucléaires. Ceux-ci ciblent spécifiquement les sous-unités protéiques d'histone ou les complexes d'histone. Ils ont été repérés pour la première fois par Henry Kunkel, HR Holman et HRG Dreicher dans leurs études portant sur les causes cellulaires du lupus érythémateux en 1959-1960,. Aujourd'hui, les anticorps anti-histones sont toujours utilisés en tant que marqueur du lupus érythémateux systématique, mais sont également impliqués dans d'autres maladies auto-immunes comme le syndrome de Sjögren, la dermatomyosite ou la polyarthrite rhumatoïde et peuvent donc éventuellement faciliter leur diagnostic,. Les anticorps anti-histones peuvent être utilisés comme marqueur du lupus d'origine médicamenteuse.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Spécificité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les anticorps anti-histones ciblent cinq classes principales de sous-unités protéiques d'histone : H1, H2A, H2B, H3 et H4[6]. Les anticorps anti-histones sont divers, ainsi, en plus de cibler les sous-unités protéiques, différents anticorps peuvent également être spécifiques à certains complexes, notamment le dimère H2A-H2B ou le tétramère H3-H4. Il existe des preuves montrant que les anticorps anti-histones IgG et IgM produits à la suite de certaines expositions à des médicaments sont spécifiques aux épitopes de différents complexes d'histone[7]. Il a aussi été démontré que les histones hautement modifiées provoquent une plus grande réponse immunitaire[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anticorps anti-histones ciblent cinq classes principales de sous-unités protéiques d'histone : H1, H2A, H2B, H3 et H4. Les anticorps anti-histones sont divers, ainsi, en plus de cibler les sous-unités protéiques, différents anticorps peuvent également être spécifiques à certains complexes, notamment le dimère H2A-H2B ou le tétramère H3-H4. Il existe des preuves montrant que les anticorps anti-histones IgG et IgM produits à la suite de certaines expositions à des médicaments sont spécifiques aux épitopes de différents complexes d'histone. Il a aussi été démontré que les histones hautement modifiées provoquent une plus grande réponse immunitaire.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Détection des anticorps</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les anticorps anti-histones peuvent être détectés à l’aide d’un test ELISA. Un échantillon de sang est requis pour celui-ci[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anticorps anti-histones peuvent être détectés à l’aide d’un test ELISA. Un échantillon de sang est requis pour celui-ci.
 L’immunofluorescence indirecte peut également être utilisée pour détecter les anticorps anti-histones. Une coloration homogène et diffuse indique la présence d'anticorps anti-histones, de chromatine et d'un peu d'ADN double brin.
 </t>
         </is>
@@ -574,7 +590,9 @@
           <t>Implications de la maladie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Quatre-vingt-seize pour cent des patients atteints de lupus induit par la procaïnamide obtiennent un test positif pour les anticorps anti-histones, et 100 % pour les patients dont le lupus a été induit par la pénicillamine, l'isoniazide ou la méthyldopa. Chez 70 % des patients atteints de polyarthrite rhumatoïde, du syndrome de Felty, du syndrome de Sjögren, de la sclérose systémique et de la cirrhose biliaire primitive, des anticorps anti-histones sont détectés. Des anticorps anti-histones peuvent également être présents chez les patients atteints de la maladie d'Alzheimer et de démence.
 Une valeur supérieure à 1,5 unité relativement à un sérum témoin est considérée comme un résultat positif aux anticorps anti-histones pour le test ELISA. Les patients atteints de lupus érythémateux d'origine médicamenteuse ont généralement des tests positifs pour les anticorps anti-histones, mais n'ont pas de signe d'anticorps anti-ADNdb. Les patients atteints de lupus érythémateux systémique idiopathique ont les deux types d'auto-anticorps présents dans leur sang. Ainsi, ce test peut être utile pour distinguer ces deux maladies.
